--- a/database/data/Excel/Distances.xlsx
+++ b/database/data/Excel/Distances.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Parvin Khatun\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\mhreja\metro-api\database\data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02681D70-C92C-46C6-874E-7ACB4E7A03C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD872783-25AA-431C-AB7C-EED3FA21C35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{675D24BE-C0D4-4EF9-97D3-91D8D975D584}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="268">
   <si>
     <t>Shaheed Sthal(New Bus Adda)</t>
   </si>
@@ -799,9 +799,6 @@
   </si>
   <si>
     <t>Dwarka Sector - 21</t>
-  </si>
-  <si>
-    <t>New Delhi-Airport Express</t>
   </si>
   <si>
     <t>Dhaula Kuan</t>
@@ -1185,8 +1182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{476F481E-9259-4F67-8952-F04C9857FAC4}">
   <dimension ref="A1:D277"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1205,10 +1202,10 @@
         <v>237</v>
       </c>
       <c r="C1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1" t="s">
         <v>267</v>
-      </c>
-      <c r="D1" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2893,7 +2890,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="B122" t="s">
         <v>101</v>
@@ -2910,7 +2907,7 @@
         <v>101</v>
       </c>
       <c r="B123" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C123">
         <v>6700</v>
@@ -2921,7 +2918,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B124" t="s">
         <v>102</v>
@@ -2952,7 +2949,7 @@
         <v>103</v>
       </c>
       <c r="B126" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C126">
         <v>3320</v>
@@ -3428,7 +3425,7 @@
         <v>133</v>
       </c>
       <c r="B160" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C160">
         <v>1500</v>
@@ -3439,7 +3436,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B161" t="s">
         <v>134</v>
@@ -3484,7 +3481,7 @@
         <v>136</v>
       </c>
       <c r="B164" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C164">
         <v>800</v>
@@ -3495,7 +3492,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B165" t="s">
         <v>137</v>
@@ -3960,7 +3957,7 @@
         <v>168</v>
       </c>
       <c r="B198" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C198">
         <v>900</v>
@@ -3971,7 +3968,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B199" t="s">
         <v>169</v>
@@ -4226,7 +4223,7 @@
         <v>182</v>
       </c>
       <c r="B217" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C217">
         <v>3800</v>
@@ -4237,7 +4234,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B218" t="s">
         <v>183</v>
@@ -4310,7 +4307,7 @@
         <v>186</v>
       </c>
       <c r="B223" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C223">
         <v>1640</v>
@@ -4321,7 +4318,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B224" t="s">
         <v>187</v>
@@ -4366,7 +4363,7 @@
         <v>189</v>
       </c>
       <c r="B227" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C227">
         <v>4300</v>
@@ -4377,7 +4374,7 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B228" t="s">
         <v>190</v>
@@ -4601,7 +4598,7 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B244" t="s">
         <v>203</v>
@@ -4940,7 +4937,7 @@
         <v>227</v>
       </c>
       <c r="B268" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C268">
         <v>1300</v>
@@ -4951,7 +4948,7 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B269" t="s">
         <v>228</v>
